--- a/NhryService/src/main/webapp/report/template/OrgCustTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/OrgCustTemplate.xlsx
@@ -169,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -180,6 +180,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,19 +535,21 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="4" customWidth="1"/>
+    <col min="6" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="10.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="85.5">

--- a/NhryService/src/main/webapp/report/template/OrgCustTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/OrgCustTemplate.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>订户号= 订户手机号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>如果名字没有, 
 那么名字填"未知"</t>
@@ -532,86 +529,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="4" customWidth="1"/>
-    <col min="6" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="10.375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="15" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="4" customWidth="1"/>
+    <col min="5" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="10.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="85.5">
+    <row r="1" spans="1:13" ht="85.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
+  <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
+  <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
     <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
